--- a/develop.xlsx
+++ b/develop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>基站地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,12 +87,36 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>四川省成都市建设北路二段四号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆金波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新西区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖良平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +154,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,9 +182,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,27 +568,30 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="26.75" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -569,29 +611,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
+      <c r="A2" s="2">
+        <v>4634968874</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1326354564</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
